--- a/ProjectBirdsz/bin/Debug/cages.xlsx
+++ b/ProjectBirdsz/bin/Debug/cages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guyal\OneDrive\Desktop\FinalPROJECTbirds\ProjectBirdsz\ProjectBirdsz\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F721CF-E245-450A-B177-8834206DE3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8C14D0-630D-4EA1-A12B-85FC19F52D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22905" yWindow="3720" windowWidth="14475" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>

--- a/ProjectBirdsz/bin/Debug/cages.xlsx
+++ b/ProjectBirdsz/bin/Debug/cages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guyal\OneDrive\Desktop\FinalPROJECTbirds\ProjectBirdsz\ProjectBirdsz\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8C14D0-630D-4EA1-A12B-85FC19F52D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C21F62A-51FC-4686-9B42-770C2DA172CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22905" yWindow="3720" windowWidth="14475" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>CageNumber</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Material</t>
+  </si>
+  <si>
+    <t>Plastic</t>
   </si>
 </sst>
 </file>
@@ -357,7 +360,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
@@ -382,6 +385,23 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProjectBirdsz/bin/Debug/cages.xlsx
+++ b/ProjectBirdsz/bin/Debug/cages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guyal\OneDrive\Desktop\FinalPROJECTbirds\ProjectBirdsz\ProjectBirdsz\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C21F62A-51FC-4686-9B42-770C2DA172CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DFEF72-5BC9-403A-AD04-034CCBBC57C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22905" yWindow="3720" windowWidth="14475" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16200" yWindow="-1905" windowWidth="16410" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>CageNumber</t>
   </si>
@@ -43,6 +43,18 @@
   </si>
   <si>
     <t>Plastic</t>
+  </si>
+  <si>
+    <t>wood</t>
+  </si>
+  <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>AAA12</t>
+  </si>
+  <si>
+    <t>Wood</t>
   </si>
 </sst>
 </file>
@@ -360,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -387,7 +399,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>20</v>
@@ -399,7 +411,111 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>35</v>
+      </c>
+      <c r="D9">
+        <v>80</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectBirdsz/bin/Debug/cages.xlsx
+++ b/ProjectBirdsz/bin/Debug/cages.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guyal\OneDrive\Desktop\FinalPROJECTbirds\ProjectBirdsz\ProjectBirdsz\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guyal\Source\Repos\NewBirds\ProjectBirdsz\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DFEF72-5BC9-403A-AD04-034CCBBC57C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D767F3-0C16-422A-B1AE-0D8061C6B4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16200" yWindow="-1905" windowWidth="16410" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3675" yWindow="3675" windowWidth="21600" windowHeight="11452" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>CageNumber</t>
   </si>
@@ -372,15 +372,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -397,128 +397,148 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>20</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
       <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>20</v>
       </c>
-      <c r="D3">
+      <c r="C4">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>25</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>30</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>35</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>3</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>15</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>20</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>35</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>80</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E10">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ProjectBirdsz/bin/Debug/cages.xlsx
+++ b/ProjectBirdsz/bin/Debug/cages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guyal\Source\Repos\NewBirds\ProjectBirdsz\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D767F3-0C16-422A-B1AE-0D8061C6B4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16F0566-467D-4EA0-9F63-CDD05503AC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3675" yWindow="3675" windowWidth="21600" windowHeight="11452" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>CageNumber</t>
   </si>
@@ -372,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -405,7 +405,7 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D2">
         <v>48</v>
@@ -519,8 +519,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>8</v>
+      <c r="A10">
+        <v>12</v>
       </c>
       <c r="B10">
         <v>20</v>
@@ -529,14 +529,48 @@
         <v>35</v>
       </c>
       <c r="D10">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>35</v>
+      </c>
+      <c r="D12">
         <v>80</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E12" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E10">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E12">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ProjectBirdsz/bin/Debug/cages.xlsx
+++ b/ProjectBirdsz/bin/Debug/cages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guyal\Source\Repos\NewBirds\ProjectBirdsz\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16F0566-467D-4EA0-9F63-CDD05503AC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707B2776-CA5B-46D2-AA9F-7899014015D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3675" yWindow="3675" windowWidth="21600" windowHeight="11452" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t>CageNumber</t>
   </si>
@@ -372,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -506,55 +506,55 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>223</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>48</v>
-      </c>
-      <c r="E10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>8</v>
+      <c r="A12">
+        <v>12</v>
       </c>
       <c r="B12">
         <v>20</v>
@@ -563,14 +563,48 @@
         <v>35</v>
       </c>
       <c r="D12">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>35</v>
+      </c>
+      <c r="D14">
         <v>80</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E14" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E12">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E14">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ProjectBirdsz/bin/Debug/cages.xlsx
+++ b/ProjectBirdsz/bin/Debug/cages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guyal\Source\Repos\NewBirds\ProjectBirdsz\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707B2776-CA5B-46D2-AA9F-7899014015D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5298A2CF-401F-4383-8BFD-B312E5948DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="3675" windowWidth="21600" windowHeight="11452" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>CageNumber</t>
   </si>
@@ -42,19 +42,13 @@
     <t>Material</t>
   </si>
   <si>
+    <t>Wood</t>
+  </si>
+  <si>
     <t>Plastic</t>
   </si>
   <si>
-    <t>wood</t>
-  </si>
-  <si>
     <t>Metal</t>
-  </si>
-  <si>
-    <t>AAA12</t>
-  </si>
-  <si>
-    <t>Wood</t>
   </si>
 </sst>
 </file>
@@ -372,15 +366,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -397,7 +397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -405,206 +405,85 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>30</v>
       </c>
       <c r="D5">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>22</v>
-      </c>
-      <c r="C9">
-        <v>223</v>
-      </c>
-      <c r="D9">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>15</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>20</v>
-      </c>
-      <c r="C12">
-        <v>35</v>
-      </c>
-      <c r="D12">
-        <v>48</v>
-      </c>
-      <c r="E12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>20</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14">
-        <v>20</v>
-      </c>
-      <c r="C14">
-        <v>35</v>
-      </c>
-      <c r="D14">
-        <v>80</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E14">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E6">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ProjectBirdsz/bin/Debug/cages.xlsx
+++ b/ProjectBirdsz/bin/Debug/cages.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guyal\Source\Repos\NewBirds\ProjectBirdsz\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guyal\source\repos\NewBirds\ProjectBirdsz\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5298A2CF-401F-4383-8BFD-B312E5948DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA73DFE-4FED-443A-9B61-173B4C73F59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -368,7 +368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>

--- a/ProjectBirdsz/bin/Debug/cages.xlsx
+++ b/ProjectBirdsz/bin/Debug/cages.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guyal\source\repos\NewBirds\ProjectBirdsz\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guyal\Source\Repos\NewBirds\ProjectBirdsz\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA73DFE-4FED-443A-9B61-173B4C73F59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3EB4C7-016B-4605-B819-2D601827E76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
     <t>CageNumber</t>
   </si>
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:E1"/>
@@ -482,8 +482,59 @@
         <v>6</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>60</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>31</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E6">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E9">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ProjectBirdsz/bin/Debug/cages.xlsx
+++ b/ProjectBirdsz/bin/Debug/cages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guyal\Source\Repos\NewBirds\ProjectBirdsz\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3EB4C7-016B-4605-B819-2D601827E76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D9B600-304B-4566-A3C0-38BAEB3C7B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
     <t>CageNumber</t>
   </si>
@@ -366,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,16 +402,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D2">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -533,8 +533,42 @@
         <v>6</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>30</v>
+      </c>
+      <c r="D10">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E9">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E11">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ProjectBirdsz/bin/Debug/cages.xlsx
+++ b/ProjectBirdsz/bin/Debug/cages.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guyal\Source\Repos\NewBirds\ProjectBirdsz\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guyal\source\repos\NewBirds\ProjectBirdsz\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D9B600-304B-4566-A3C0-38BAEB3C7B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011BF91A-BF84-430D-8198-E2474D7ABE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -64,12 +64,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -84,8 +90,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -369,7 +376,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -381,19 +388,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -402,7 +409,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>20</v>
@@ -419,7 +426,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>40</v>

--- a/ProjectBirdsz/bin/Debug/cages.xlsx
+++ b/ProjectBirdsz/bin/Debug/cages.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guyal\source\repos\NewBirds\ProjectBirdsz\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guyal\Source\Repos\NewBirds\ProjectBirdsz\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011BF91A-BF84-430D-8198-E2474D7ABE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D9A36D-2BFF-47B6-B6D1-84B79A499146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
   <si>
     <t>CageNumber</t>
   </si>
@@ -373,7 +373,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="A1:E1"/>
@@ -412,13 +412,13 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D2">
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -443,7 +443,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>50</v>
@@ -463,13 +463,13 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -525,57 +525,91 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>20</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>30</v>
       </c>
       <c r="D10">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>15</v>
       </c>
-      <c r="C11">
-        <v>30</v>
-      </c>
-      <c r="D11">
-        <v>25</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="B13">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E11">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E13">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
